--- a/Scripts/Kamper/V25/D-sluttspill.xlsx
+++ b/Scripts/Kamper/V25/D-sluttspill.xlsx
@@ -500,13 +500,17 @@
           <t>CKK</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>FC BI United</t>
@@ -570,13 +574,17 @@
           <t>Tim&amp;Shænko</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>Smøreguttene FK</t>

--- a/Scripts/Kamper/V25/D-sluttspill.xlsx
+++ b/Scripts/Kamper/V25/D-sluttspill.xlsx
@@ -575,15 +575,15 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>5</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>v</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>

--- a/Scripts/Kamper/V25/D-sluttspill.xlsx
+++ b/Scripts/Kamper/V25/D-sluttspill.xlsx
@@ -539,13 +539,17 @@
           <t>Erudio Herrer</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>4</v>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>Knekken</t>

--- a/Scripts/Kamper/V25/D-sluttspill.xlsx
+++ b/Scripts/Kamper/V25/D-sluttspill.xlsx
@@ -679,13 +679,17 @@
           <t>Smøreguttene FK</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>Knekken</t>
@@ -714,13 +718,17 @@
           <t>CKK</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>Erudio Herrer</t>

--- a/Scripts/Kamper/V25/D-sluttspill.xlsx
+++ b/Scripts/Kamper/V25/D-sluttspill.xlsx
@@ -757,13 +757,17 @@
           <t>FC BI United</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>Tim&amp;Shænko</t>

--- a/Scripts/Kamper/V25/D-sluttspill.xlsx
+++ b/Scripts/Kamper/V25/D-sluttspill.xlsx
@@ -858,13 +858,17 @@
           <t>Tim&amp;Shænko</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>CKK</t>
@@ -893,13 +897,17 @@
           <t>Knekken</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
       <c r="C13" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>FC BI United</t>
@@ -928,13 +936,17 @@
           <t>Smøreguttene FK</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
       <c r="C14" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>Erudio Herrer</t>

--- a/Scripts/Kamper/V25/D-sluttspill.xlsx
+++ b/Scripts/Kamper/V25/D-sluttspill.xlsx
@@ -898,15 +898,15 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>6</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>v</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>2</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>

--- a/Scripts/Kamper/V25/D-sluttspill.xlsx
+++ b/Scripts/Kamper/V25/D-sluttspill.xlsx
@@ -1037,13 +1037,17 @@
           <t>CKK</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>Knekken</t>
@@ -1072,13 +1076,17 @@
           <t>FC BI United</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
       <c r="C18" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>Smøreguttene FK</t>
@@ -1107,13 +1115,17 @@
           <t>Erudio Herrer</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
       <c r="C19" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>Tim&amp;Shænko</t>

--- a/Scripts/Kamper/V25/D-sluttspill.xlsx
+++ b/Scripts/Kamper/V25/D-sluttspill.xlsx
@@ -1251,13 +1251,17 @@
           <t>Smøreguttene FK</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>3</v>
+      </c>
       <c r="C23" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>CKK</t>
@@ -1286,13 +1290,17 @@
           <t>Erudio Herrer</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
       <c r="C24" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>FC BI United</t>

--- a/Scripts/Kamper/V25/D-sluttspill.xlsx
+++ b/Scripts/Kamper/V25/D-sluttspill.xlsx
@@ -1216,13 +1216,17 @@
           <t>Knekken</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>4</v>
+      </c>
       <c r="C22" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>7</v>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>Tim&amp;Shænko</t>
